--- a/pemrosesan text/project pemro/gui/data.xlsx
+++ b/pemrosesan text/project pemro/gui/data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -501,6 +501,258 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13 December 2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya sedang belajar.
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lantai.
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lantai.Produk ini sangat buruk.
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">padahal bangunan baru tapi kok jebol
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">menjebol
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">menjebol kereta cepat
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kekeliruan
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baik
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gebos
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sebanding 
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">leyu
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">terpencil
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kereta cepat ini sangat buruk
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kereta lrt ini sangat buruk
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pemrosesan text/project pemro/gui/data.xlsx
+++ b/pemrosesan text/project pemro/gui/data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -753,6 +753,168 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kerata lrt ini sangat buruk kondisinya 
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">semua lrt di sini buluk 
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kerta lrt jelek sekali
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kereta lrt jabodebek sangat  buruk kualitasnya
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kereta cepat ini cukup bagus
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kenapa kereta cepat ini sanagt lambat
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jadwal dari lrt jabodebek sangat berantakan
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jadwal dari lrt jabodebek sangat tidak efisien
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14 December 2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tolol yang naik kerta lrt
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pemrosesan text/project pemro/gui/data.xlsx
+++ b/pemrosesan text/project pemro/gui/data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -915,6 +915,690 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lrt ini sangat jelek 
+</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lrt ini sangat membingungkan 
+</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kereta cepat ini sangat lambat
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya merasa frustrasi dengan penundaan yang sering terjadi pada jadwal LRT Jabodebek, ini seringkali mengganggu rencana perjalanan saya
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya sangat terkesan dengan kebersihan dan kenyamanan di dalam kereta LRT Jabodebek, membuat perjalanan saya menjadi lebih menyenangkan.
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya sangat terkesan dengan kebersihan dan kenyamanan di dalam kereta LRT Jabodebek.
+</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya sangat senang dan terkesan dengann fasilitas lrt jabodebek
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya sangat senang dan terkesan dengann fasilitas lrt jabodebe
+</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya sangat senang sekali.
+</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aku suka sama kamu.
+</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aku suka sama lrt kereta cepat
+</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya pengen makan
+</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya suka lrt
+</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya sangat suka dengan lrt ini
+</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lrt ini sangat terbaik
+</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lrt ini  terbaik
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya sangat terkesan dengan kebersihan dan kenyamanan di dalam kereta LRT Jabodebek, membuat perjalanan saya menjadi lebih menyenangkan
+</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya ingin makan
+</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya ingin naik kereta lrt
+</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lrt ini sangat  bagus
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lrt ini sangat bagus
+</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya ingin naik kerta lrt ini yang bagus sekali
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya ingin naik kerta ini yang bagus sekali 
+</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lrt ini bagus sekali
+</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kerta lrt buatan negeri sangat bangga
+</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kerta lrt buatan negeri sangat bangga
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya sangat bangga dengan buatan lokal
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya sangat bangga dengan buatan lokal
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saya sangat terkesan dengan kebersihan dan kenyamanan di dalam kereta LRT Jabodebek, membuat perjalanan saya menjadi lebih menyenangkan
+</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20 December 2023</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya sangat bahagia bisa merasakan lrt ini
+</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya ingin ke rumah tetangga
+</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya mau naik kerta lrt
+</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">saya mau naik kerta lrt yang buluk itu
+</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">naik kereta lrt buluk
+</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kerta lrt jabodebek sangat buruk pelayanannya
+</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sangat tidak bagus 
+</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">berikan saya masukan yang baik
+</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kereta lrt ini saat buluk
+</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pemrosesan text/project pemro/gui/data.xlsx
+++ b/pemrosesan text/project pemro/gui/data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1599,6 +1599,114 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kereta ini sangat baik pelayanannya.
+</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jadwal keretanya sangat tidak jelas
+</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jadwal keretanya tidak jelas
+</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kenapa semua hal tidak bagus
+</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bobrok fasilitas llrtnya
+</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asu gajelas fasilitasnya
+</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
